--- a/medicine/Psychotrope/Tencha/Tencha.xlsx
+++ b/medicine/Psychotrope/Tencha/Tencha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tencha est un type de thé non raffiné, connu pour sa richesse en nutriments[1],[2]. Il est généralement réduit en poudre à l'aide de meules en pierre pour devenir du matcha[3].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tencha est un type de thé non raffiné, connu pour sa richesse en nutriments,. Il est généralement réduit en poudre à l'aide de meules en pierre pour devenir du matcha.  
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Production et préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme le gyokuro, le tencha est produit en plantation couverte[2]. Il est riche en théanine.
-Après la cueillette, les feuilles sont chauffées à la vapeur environ 20 secondes, ce qui interrompt leur oxydation. Elles sont ensuite passées dans une série de 4 à 5 cheminées successives de 5 à 6 mètres de haut, sous l'effet d'une soufflerie qui les sèche et les refroidit. Ensuite, les feuilles passent dans le tencha-ro ou « four à tencha » et sèchent à 180 °C puis à 100 °C.Les tiges sont ensuite séparées des feuilles, et ces feuilles passent par une dernière phase de séchage. À la fin du processus, les feuilles ont une humidité de 4 à 5 %[3].
-Une fois ces feuilles broyées et réduites en poudre, on obtient du thé matcha[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le gyokuro, le tencha est produit en plantation couverte. Il est riche en théanine.
+Après la cueillette, les feuilles sont chauffées à la vapeur environ 20 secondes, ce qui interrompt leur oxydation. Elles sont ensuite passées dans une série de 4 à 5 cheminées successives de 5 à 6 mètres de haut, sous l'effet d'une soufflerie qui les sèche et les refroidit. Ensuite, les feuilles passent dans le tencha-ro ou « four à tencha » et sèchent à 180 °C puis à 100 °C.Les tiges sont ensuite séparées des feuilles, et ces feuilles passent par une dernière phase de séchage. À la fin du processus, les feuilles ont une humidité de 4 à 5 %.
+Une fois ces feuilles broyées et réduites en poudre, on obtient du thé matcha.
 </t>
         </is>
       </c>
